--- a/EA.xlsx
+++ b/EA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EA.xlsx
+++ b/EA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>Jalani Saja</t>
+  </si>
+  <si>
+    <t>andi.sliye@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Biasa</t>
+  </si>
+  <si>
+    <t>Andi Sliye</t>
+  </si>
+  <si>
+    <t>Recovery Email</t>
+  </si>
+  <si>
+    <t>dkb38fqwr</t>
+  </si>
+  <si>
+    <t>Begini Jadinya</t>
+  </si>
+  <si>
+    <t>beginijadinya@yahoo.com</t>
+  </si>
+  <si>
+    <t>dpo462mnb</t>
+  </si>
+  <si>
+    <t>terimalahsudah@yahoo.com</t>
+  </si>
+  <si>
+    <t>Terimlah Sudah</t>
   </si>
 </sst>
 </file>
@@ -381,20 +417,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,24 +451,81 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>895702665844</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>895702665844</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
